--- a/Cleaning and MongoDB Import/Resources/TTC Subway Stations.xlsx
+++ b/Cleaning and MongoDB Import/Resources/TTC Subway Stations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajunjee Selvam\Desktop\Classwork\Projects\Projects\Project 3\Ajunjee\Real-Estate-Dashboard\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajunjee Selvam\Desktop\Classwork\Projects\Projects\Project 3\Ajunjee\Real-Estate-Dashboard\Cleaning and MongoDB Import\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939ACD5-0096-4F6C-A3EC-5841DE3C4119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4774EDAC-3DB4-4956-A7B0-1B52B9F39B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TTC Subway Stations" sheetId="1" r:id="rId1"/>
@@ -2101,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2251,7 @@
         <v>31</v>
       </c>
       <c r="W2">
-        <v>79.414722220000002</v>
+        <v>-79.414722220000002</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>31</v>
       </c>
       <c r="W3">
-        <v>79.412777779999999</v>
+        <v>-79.412777779999999</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
         <v>31</v>
       </c>
       <c r="W4">
-        <v>79.410833330000003</v>
+        <v>-79.410833330000003</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
         <v>31</v>
       </c>
       <c r="W5">
-        <v>79.406666670000007</v>
+        <v>-79.406666670000007</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>31</v>
       </c>
       <c r="W6">
-        <v>79.402222219999999</v>
+        <v>-79.402222219999999</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
         <v>31</v>
       </c>
       <c r="W7">
-        <v>79.39833333</v>
+        <v>-79.39833333</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -2677,7 +2677,7 @@
         <v>31</v>
       </c>
       <c r="W8">
-        <v>79.397222220000003</v>
+        <v>-79.397222220000003</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="W9">
-        <v>79.393055559999993</v>
+        <v>-79.393055559999993</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>31</v>
       </c>
       <c r="W10">
-        <v>79.390833330000007</v>
+        <v>-79.390833330000007</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
         <v>31</v>
       </c>
       <c r="W11">
-        <v>79.388888890000004</v>
+        <v>-79.388888890000004</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>31</v>
       </c>
       <c r="W12">
-        <v>79.385833329999997</v>
+        <v>-79.385833329999997</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>31</v>
       </c>
       <c r="W13">
-        <v>79.383888889999994</v>
+        <v>-79.383888889999994</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -3103,7 +3103,7 @@
         <v>31</v>
       </c>
       <c r="W14">
-        <v>79.383055560000003</v>
+        <v>-79.383055560000003</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
         <v>31</v>
       </c>
       <c r="W15">
-        <v>79.380833330000002</v>
+        <v>-79.380833330000002</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>31</v>
       </c>
       <c r="W16">
-        <v>79.379166670000004</v>
+        <v>-79.379166670000004</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="W17">
-        <v>79.377777780000002</v>
+        <v>-79.377777780000002</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="W18">
-        <v>79.380555560000005</v>
+        <v>-79.380555560000005</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -3458,7 +3458,7 @@
         <v>31</v>
       </c>
       <c r="W19">
-        <v>79.38472222</v>
+        <v>-79.38472222</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>31</v>
       </c>
       <c r="W20">
-        <v>79.386666669999997</v>
+        <v>-79.386666669999997</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -3600,7 +3600,7 @@
         <v>31</v>
       </c>
       <c r="W21">
-        <v>79.388333329999995</v>
+        <v>-79.388333329999995</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>31</v>
       </c>
       <c r="W22">
-        <v>79.390555559999996</v>
+        <v>-79.390555559999996</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -3742,7 +3742,7 @@
         <v>31</v>
       </c>
       <c r="W23">
-        <v>79.393611109999995</v>
+        <v>-79.393611109999995</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -3813,7 +3813,7 @@
         <v>31</v>
       </c>
       <c r="W24">
-        <v>79.399722220000001</v>
+        <v>-79.399722220000001</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -3884,7 +3884,7 @@
         <v>31</v>
       </c>
       <c r="W25">
-        <v>79.403888890000005</v>
+        <v>-79.403888890000005</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -3955,7 +3955,7 @@
         <v>31</v>
       </c>
       <c r="W26">
-        <v>79.406944440000004</v>
+        <v>-79.406944440000004</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -4026,7 +4026,7 @@
         <v>31</v>
       </c>
       <c r="W27">
-        <v>79.415000000000006</v>
+        <v>-79.415000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -4097,7 +4097,7 @@
         <v>31</v>
       </c>
       <c r="W28">
-        <v>79.435833329999994</v>
+        <v>-79.435833329999994</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -4168,7 +4168,7 @@
         <v>31</v>
       </c>
       <c r="W29">
-        <v>79.440833330000004</v>
+        <v>-79.440833330000004</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>31</v>
       </c>
       <c r="W30">
-        <v>79.444166670000001</v>
+        <v>-79.444166670000001</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -4310,7 +4310,7 @@
         <v>31</v>
       </c>
       <c r="W31">
-        <v>79.447500000000005</v>
+        <v>-79.447500000000005</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -4381,7 +4381,7 @@
         <v>31</v>
       </c>
       <c r="W32">
-        <v>79.45</v>
+        <v>-79.45</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -4452,7 +4452,7 @@
         <v>31</v>
       </c>
       <c r="W33">
-        <v>79.461944439999996</v>
+        <v>-79.461944439999996</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -4523,7 +4523,7 @@
         <v>31</v>
       </c>
       <c r="W34">
-        <v>79.478333329999998</v>
+        <v>-79.478333329999998</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,7 @@
         <v>31</v>
       </c>
       <c r="W35">
-        <v>79.491111110000006</v>
+        <v>-79.491111110000006</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -4665,7 +4665,7 @@
         <v>31</v>
       </c>
       <c r="W36">
-        <v>79.499722219999995</v>
+        <v>-79.499722219999995</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -4736,7 +4736,7 @@
         <v>31</v>
       </c>
       <c r="W37">
-        <v>79.509444439999996</v>
+        <v>-79.509444439999996</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -4807,7 +4807,7 @@
         <v>31</v>
       </c>
       <c r="W38">
-        <v>79.523055560000003</v>
+        <v>-79.523055560000003</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -4878,7 +4878,7 @@
         <v>31</v>
       </c>
       <c r="W39">
-        <v>79.527500000000003</v>
+        <v>-79.527500000000003</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -4949,7 +4949,7 @@
         <v>31</v>
       </c>
       <c r="W40">
-        <v>79.536111109999993</v>
+        <v>-79.536111109999993</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -5020,7 +5020,7 @@
         <v>31</v>
       </c>
       <c r="W41">
-        <v>79.524444439999996</v>
+        <v>-79.524444439999996</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -5091,7 +5091,7 @@
         <v>31</v>
       </c>
       <c r="W42">
-        <v>79.511388890000006</v>
+        <v>-79.511388890000006</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -5162,7 +5162,7 @@
         <v>31</v>
       </c>
       <c r="W43">
-        <v>79.49472222</v>
+        <v>-79.49472222</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -5233,7 +5233,7 @@
         <v>31</v>
       </c>
       <c r="W44">
-        <v>79.483888890000003</v>
+        <v>-79.483888890000003</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -5304,7 +5304,7 @@
         <v>31</v>
       </c>
       <c r="W45">
-        <v>79.47583333</v>
+        <v>-79.47583333</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -5375,7 +5375,7 @@
         <v>31</v>
       </c>
       <c r="W46">
-        <v>79.466666669999995</v>
+        <v>-79.466666669999995</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -5446,7 +5446,7 @@
         <v>31</v>
       </c>
       <c r="W47">
-        <v>79.459722220000003</v>
+        <v>-79.459722220000003</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -5517,7 +5517,7 @@
         <v>31</v>
       </c>
       <c r="W48">
-        <v>79.452916669999993</v>
+        <v>-79.452916669999993</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
         <v>31</v>
       </c>
       <c r="W49">
-        <v>79.44277778</v>
+        <v>-79.44277778</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -5659,7 +5659,7 @@
         <v>31</v>
       </c>
       <c r="W50">
-        <v>79.435555559999997</v>
+        <v>-79.435555559999997</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -5730,7 +5730,7 @@
         <v>31</v>
       </c>
       <c r="W51">
-        <v>79.426666670000003</v>
+        <v>-79.426666670000003</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -5801,7 +5801,7 @@
         <v>31</v>
       </c>
       <c r="W52">
-        <v>79.418333329999996</v>
+        <v>-79.418333329999996</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
         <v>31</v>
       </c>
       <c r="W53">
-        <v>79.411111109999993</v>
+        <v>-79.411111109999993</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -5943,7 +5943,7 @@
         <v>31</v>
       </c>
       <c r="W54">
-        <v>79.39</v>
+        <v>-79.39</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -6014,7 +6014,7 @@
         <v>31</v>
       </c>
       <c r="W55">
-        <v>79.376388890000001</v>
+        <v>-79.376388890000001</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -6085,7 +6085,7 @@
         <v>31</v>
       </c>
       <c r="W56">
-        <v>79.368888889999994</v>
+        <v>-79.368888889999994</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -6156,7 +6156,7 @@
         <v>31</v>
       </c>
       <c r="W57">
-        <v>79.358333329999994</v>
+        <v>-79.358333329999994</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -6227,7 +6227,7 @@
         <v>31</v>
       </c>
       <c r="W58">
-        <v>79.352500000000006</v>
+        <v>-79.352500000000006</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -6298,7 +6298,7 @@
         <v>31</v>
       </c>
       <c r="W59">
-        <v>79.344999999999999</v>
+        <v>-79.344999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -6369,7 +6369,7 @@
         <v>31</v>
       </c>
       <c r="W60">
-        <v>79.337777779999996</v>
+        <v>-79.337777779999996</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -6440,7 +6440,7 @@
         <v>31</v>
       </c>
       <c r="W61">
-        <v>79.330277780000003</v>
+        <v>-79.330277780000003</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -6511,7 +6511,7 @@
         <v>31</v>
       </c>
       <c r="W62">
-        <v>79.32305556</v>
+        <v>-79.32305556</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -6582,7 +6582,7 @@
         <v>31</v>
       </c>
       <c r="W63">
-        <v>79.312777780000005</v>
+        <v>-79.312777780000005</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
@@ -6653,7 +6653,7 @@
         <v>31</v>
       </c>
       <c r="W64">
-        <v>79.301666670000003</v>
+        <v>-79.301666670000003</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -6724,7 +6724,7 @@
         <v>31</v>
       </c>
       <c r="W65">
-        <v>79.288611110000005</v>
+        <v>-79.288611110000005</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -6795,7 +6795,7 @@
         <v>31</v>
       </c>
       <c r="W66">
-        <v>79.279722219999996</v>
+        <v>-79.279722219999996</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -6866,7 +6866,7 @@
         <v>31</v>
       </c>
       <c r="W67">
-        <v>79.263611109999999</v>
+        <v>-79.263611109999999</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -6937,7 +6937,7 @@
         <v>31</v>
       </c>
       <c r="W68">
-        <v>79.386666669999997</v>
+        <v>-79.386666669999997</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
         <v>31</v>
       </c>
       <c r="W69">
-        <v>79.376388890000001</v>
+        <v>-79.376388890000001</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -7079,7 +7079,7 @@
         <v>31</v>
       </c>
       <c r="W70">
-        <v>79.36527778</v>
+        <v>-79.36527778</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -7150,7 +7150,7 @@
         <v>31</v>
       </c>
       <c r="W71">
-        <v>79.34638889</v>
+        <v>-79.34638889</v>
       </c>
     </row>
   </sheetData>
